--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf18-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf18-Fgfr3.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7403513333333334</v>
+        <v>0.350653</v>
       </c>
       <c r="H2">
-        <v>2.221054</v>
+        <v>1.051959</v>
       </c>
       <c r="I2">
-        <v>0.09083790882557785</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="J2">
-        <v>0.09083790882557784</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N2">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q2">
-        <v>4.744357912536</v>
+        <v>2.119748463453667</v>
       </c>
       <c r="R2">
-        <v>42.699221212824</v>
+        <v>19.077736171083</v>
       </c>
       <c r="S2">
-        <v>0.07797016580700133</v>
+        <v>0.03701903501739785</v>
       </c>
       <c r="T2">
-        <v>0.07797016580700132</v>
+        <v>0.03701903501739785</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7403513333333334</v>
+        <v>0.350653</v>
       </c>
       <c r="H3">
-        <v>2.221054</v>
+        <v>1.051959</v>
       </c>
       <c r="I3">
-        <v>0.09083790882557785</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="J3">
-        <v>0.09083790882557784</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.04733</v>
       </c>
       <c r="O3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q3">
-        <v>0.5052478317577779</v>
+        <v>0.2393008021633334</v>
       </c>
       <c r="R3">
-        <v>4.54723048582</v>
+        <v>2.15370721947</v>
       </c>
       <c r="S3">
-        <v>0.00830339066782684</v>
+        <v>0.004179120743667171</v>
       </c>
       <c r="T3">
-        <v>0.008303390667826838</v>
+        <v>0.004179120743667171</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7403513333333334</v>
+        <v>0.350653</v>
       </c>
       <c r="H4">
-        <v>2.221054</v>
+        <v>1.051959</v>
       </c>
       <c r="I4">
-        <v>0.09083790882557785</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="J4">
-        <v>0.09083790882557784</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N4">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q4">
-        <v>0.2777334249164445</v>
+        <v>0.238414234495</v>
       </c>
       <c r="R4">
-        <v>2.499600824248</v>
+        <v>2.145728110455</v>
       </c>
       <c r="S4">
-        <v>0.004564352350749679</v>
+        <v>0.00416363783136641</v>
       </c>
       <c r="T4">
-        <v>0.004564352350749678</v>
+        <v>0.004163637831366411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>19.672098</v>
       </c>
       <c r="I5">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="J5">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N5">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O5">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P5">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q5">
-        <v>42.02125378423199</v>
+        <v>39.64023265964733</v>
       </c>
       <c r="R5">
-        <v>378.1912840580879</v>
+        <v>356.762093936826</v>
       </c>
       <c r="S5">
-        <v>0.6905895772149524</v>
+        <v>0.6922723078824193</v>
       </c>
       <c r="T5">
-        <v>0.6905895772149524</v>
+        <v>0.6922723078824194</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>19.672098</v>
       </c>
       <c r="I6">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="J6">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>2.04733</v>
       </c>
       <c r="O6">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P6">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q6">
         <v>4.475030710926666</v>
@@ -821,10 +821,10 @@
         <v>40.27527639834</v>
       </c>
       <c r="S6">
-        <v>0.07354396378916271</v>
+        <v>0.07815140402169043</v>
       </c>
       <c r="T6">
-        <v>0.07354396378916271</v>
+        <v>0.07815140402169043</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>19.672098</v>
       </c>
       <c r="I7">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="J7">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N7">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O7">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P7">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q7">
-        <v>2.459912794930667</v>
+        <v>4.458451503889999</v>
       </c>
       <c r="R7">
-        <v>22.139215154376</v>
+        <v>40.12606353501</v>
       </c>
       <c r="S7">
-        <v>0.04042692647296195</v>
+        <v>0.0778618667221322</v>
       </c>
       <c r="T7">
-        <v>0.04042692647296195</v>
+        <v>0.07786186672213222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7048623333333333</v>
+        <v>0.7457606666666666</v>
       </c>
       <c r="H8">
-        <v>2.114587</v>
+        <v>2.237282</v>
       </c>
       <c r="I8">
-        <v>0.08648356190788345</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="J8">
-        <v>0.08648356190788344</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N8">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O8">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P8">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q8">
-        <v>4.516935457308</v>
+        <v>4.508231862470445</v>
       </c>
       <c r="R8">
-        <v>40.65241911577199</v>
+        <v>40.574086762234</v>
       </c>
       <c r="S8">
-        <v>0.07423263864963639</v>
+        <v>0.07873122498290702</v>
       </c>
       <c r="T8">
-        <v>0.07423263864963638</v>
+        <v>0.07873122498290704</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7048623333333333</v>
+        <v>0.7457606666666666</v>
       </c>
       <c r="H9">
-        <v>2.114587</v>
+        <v>2.237282</v>
       </c>
       <c r="I9">
-        <v>0.08648356190788345</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="J9">
-        <v>0.08648356190788344</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>2.04733</v>
       </c>
       <c r="O9">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P9">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q9">
-        <v>0.4810286003011111</v>
+        <v>0.5089393952288889</v>
       </c>
       <c r="R9">
-        <v>4.32925740271</v>
+        <v>4.58045455706</v>
       </c>
       <c r="S9">
-        <v>0.007905364733188815</v>
+        <v>0.008888057058909308</v>
       </c>
       <c r="T9">
-        <v>0.007905364733188815</v>
+        <v>0.008888057058909308</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7048623333333333</v>
+        <v>0.7457606666666666</v>
       </c>
       <c r="H10">
-        <v>2.114587</v>
+        <v>2.237282</v>
       </c>
       <c r="I10">
-        <v>0.08648356190788345</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="J10">
-        <v>0.08648356190788344</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N10">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O10">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P10">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q10">
-        <v>0.2644201760937778</v>
+        <v>0.5070538636766666</v>
       </c>
       <c r="R10">
-        <v>2.379781584844</v>
+        <v>4.56348477309</v>
       </c>
       <c r="S10">
-        <v>0.004345558525058243</v>
+        <v>0.008855128360169079</v>
       </c>
       <c r="T10">
-        <v>0.004345558525058242</v>
+        <v>0.008855128360169081</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.1476666666666666</v>
+        <v>0.07636</v>
       </c>
       <c r="H11">
-        <v>0.4429999999999999</v>
+        <v>0.22908</v>
       </c>
       <c r="I11">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="J11">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N11">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O11">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P11">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q11">
-        <v>0.9462852119999998</v>
+        <v>0.4616073231066667</v>
       </c>
       <c r="R11">
-        <v>8.516566907999998</v>
+        <v>4.154465907960001</v>
       </c>
       <c r="S11">
-        <v>0.01555152799189105</v>
+        <v>0.008061455381612305</v>
       </c>
       <c r="T11">
-        <v>0.01555152799189105</v>
+        <v>0.008061455381612305</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1476666666666666</v>
+        <v>0.07636</v>
       </c>
       <c r="H12">
-        <v>0.4429999999999999</v>
+        <v>0.22908</v>
       </c>
       <c r="I12">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="J12">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>2.04733</v>
       </c>
       <c r="O12">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P12">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q12">
-        <v>0.1007741322222222</v>
+        <v>0.05211137293333334</v>
       </c>
       <c r="R12">
-        <v>0.9069671899999999</v>
+        <v>0.4690023564</v>
       </c>
       <c r="S12">
-        <v>0.001656151568510846</v>
+        <v>0.0009100668181547716</v>
       </c>
       <c r="T12">
-        <v>0.001656151568510846</v>
+        <v>0.0009100668181547716</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1476666666666666</v>
+        <v>0.07636</v>
       </c>
       <c r="H13">
-        <v>0.4429999999999999</v>
+        <v>0.22908</v>
       </c>
       <c r="I13">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="J13">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N13">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O13">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P13">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q13">
-        <v>0.05539527955555555</v>
+        <v>0.05191830939999999</v>
       </c>
       <c r="R13">
-        <v>0.498557516</v>
+        <v>0.4672647846</v>
       </c>
       <c r="S13">
-        <v>0.0009103822290597649</v>
+        <v>0.000906695179573935</v>
       </c>
       <c r="T13">
-        <v>0.0009103822290597649</v>
+        <v>0.0009066951795739352</v>
       </c>
     </row>
   </sheetData>
